--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H2">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I2">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J2">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>7.972981182407775</v>
+        <v>8.809904306877</v>
       </c>
       <c r="R2">
-        <v>7.972981182407775</v>
+        <v>35.239617227508</v>
       </c>
       <c r="S2">
-        <v>0.0008472806348270177</v>
+        <v>0.0008889607308463787</v>
       </c>
       <c r="T2">
-        <v>0.0008472806348270177</v>
+        <v>0.0004663125534888947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H3">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I3">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J3">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>573.1928195061334</v>
+        <v>609.5442931959249</v>
       </c>
       <c r="R3">
-        <v>573.1928195061334</v>
+        <v>3657.26575917555</v>
       </c>
       <c r="S3">
-        <v>0.06091262037103932</v>
+        <v>0.0615058826393509</v>
       </c>
       <c r="T3">
-        <v>0.06091262037103932</v>
+        <v>0.04839521734695221</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H4">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I4">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J4">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>802.9509500473661</v>
+        <v>813.1406753117066</v>
       </c>
       <c r="R4">
-        <v>802.9509500473661</v>
+        <v>4878.844051870239</v>
       </c>
       <c r="S4">
-        <v>0.08532878419332189</v>
+        <v>0.08204971402944261</v>
       </c>
       <c r="T4">
-        <v>0.08532878419332189</v>
+        <v>0.06455990180636249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H5">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I5">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J5">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>608.987930908665</v>
+        <v>626.606854968467</v>
       </c>
       <c r="R5">
-        <v>608.987930908665</v>
+        <v>3759.641129810802</v>
       </c>
       <c r="S5">
-        <v>0.06471653060473712</v>
+        <v>0.06322757527698721</v>
       </c>
       <c r="T5">
-        <v>0.06471653060473712</v>
+        <v>0.04974991198472575</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H6">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I6">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J6">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>21.61264422808008</v>
+        <v>27.287458358609</v>
       </c>
       <c r="R6">
-        <v>21.61264422808008</v>
+        <v>163.724750151654</v>
       </c>
       <c r="S6">
-        <v>0.002296753811769076</v>
+        <v>0.002753432736661377</v>
       </c>
       <c r="T6">
-        <v>0.002296753811769076</v>
+        <v>0.002166507820435484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.35849724814574</v>
+        <v>4.3633995</v>
       </c>
       <c r="H7">
-        <v>4.35849724814574</v>
+        <v>8.726799</v>
       </c>
       <c r="I7">
-        <v>0.2279789298318919</v>
+        <v>0.2236180428734886</v>
       </c>
       <c r="J7">
-        <v>0.2279789298318919</v>
+        <v>0.1722580872859944</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>130.5833488043218</v>
+        <v>130.7419551416377</v>
       </c>
       <c r="R7">
-        <v>130.5833488043218</v>
+        <v>522.9678205665509</v>
       </c>
       <c r="S7">
-        <v>0.01387696021619746</v>
+        <v>0.01319247746020012</v>
       </c>
       <c r="T7">
-        <v>0.01387696021619746</v>
+        <v>0.006920235774029594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H8">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I8">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J8">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>4.451663703739287</v>
+        <v>5.451670523611999</v>
       </c>
       <c r="R8">
-        <v>4.451663703739287</v>
+        <v>32.710023141672</v>
       </c>
       <c r="S8">
-        <v>0.00047307379293244</v>
+        <v>0.0005500991661419922</v>
       </c>
       <c r="T8">
-        <v>0.00047307379293244</v>
+        <v>0.0004328393897527173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H9">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I9">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J9">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>320.0385917716236</v>
+        <v>377.1930477676332</v>
       </c>
       <c r="R9">
-        <v>320.0385917716236</v>
+        <v>3394.737429908699</v>
       </c>
       <c r="S9">
-        <v>0.03401017699674505</v>
+        <v>0.03806055045932178</v>
       </c>
       <c r="T9">
-        <v>0.03401017699674505</v>
+        <v>0.04492127905774636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H10">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I10">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J10">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>448.3225933225365</v>
+        <v>503.1808401921473</v>
       </c>
       <c r="R10">
-        <v>448.3225933225365</v>
+        <v>4528.627561729326</v>
       </c>
       <c r="S10">
-        <v>0.04764278790921472</v>
+        <v>0.05077331056773661</v>
       </c>
       <c r="T10">
-        <v>0.04764278790921472</v>
+        <v>0.05992561918242843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H11">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I11">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J11">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>340.0245662216263</v>
+        <v>387.7515580343186</v>
       </c>
       <c r="R11">
-        <v>340.0245662216263</v>
+        <v>3489.764022308868</v>
       </c>
       <c r="S11">
-        <v>0.036134066258769</v>
+        <v>0.03912595374593806</v>
       </c>
       <c r="T11">
-        <v>0.036134066258769</v>
+        <v>0.04617873008694997</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H12">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I12">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J12">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>12.06728344778549</v>
+        <v>16.88579435327067</v>
       </c>
       <c r="R12">
-        <v>12.06728344778549</v>
+        <v>151.972149179436</v>
       </c>
       <c r="S12">
-        <v>0.001282377989658013</v>
+        <v>0.001703855974631613</v>
       </c>
       <c r="T12">
-        <v>0.001282377989658013</v>
+        <v>0.002010990087819107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.43353942001385</v>
+        <v>2.700122</v>
       </c>
       <c r="H13">
-        <v>2.43353942001385</v>
+        <v>8.100365999999999</v>
       </c>
       <c r="I13">
-        <v>0.1272905960682917</v>
+        <v>0.1383774273154795</v>
       </c>
       <c r="J13">
-        <v>0.1272905960682917</v>
+        <v>0.159892940524527</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>72.91038833348591</v>
+        <v>80.90463167558899</v>
       </c>
       <c r="R13">
-        <v>72.91038833348591</v>
+        <v>485.427790053534</v>
       </c>
       <c r="S13">
-        <v>0.007748113120972477</v>
+        <v>0.008163657401709485</v>
       </c>
       <c r="T13">
-        <v>0.007748113120972477</v>
+        <v>0.006423482719830376</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H14">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I14">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J14">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>4.975496096175307</v>
+        <v>5.635552446000667</v>
       </c>
       <c r="R14">
-        <v>4.975496096175307</v>
+        <v>33.813314676004</v>
       </c>
       <c r="S14">
-        <v>0.0005287409307134065</v>
+        <v>0.0005686537159330118</v>
       </c>
       <c r="T14">
-        <v>0.0005287409307134065</v>
+        <v>0.0004474388301863505</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H15">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I15">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J15">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>357.6979012695009</v>
+        <v>389.9155669357944</v>
       </c>
       <c r="R15">
-        <v>357.6979012695009</v>
+        <v>3509.24010242215</v>
       </c>
       <c r="S15">
-        <v>0.03801219367388371</v>
+        <v>0.03934431240996036</v>
       </c>
       <c r="T15">
-        <v>0.03801219367388371</v>
+        <v>0.04643644970379329</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H16">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I16">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J16">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>501.0772289537053</v>
+        <v>520.1528600167009</v>
       </c>
       <c r="R16">
-        <v>501.0772289537053</v>
+        <v>4681.375740150307</v>
       </c>
       <c r="S16">
-        <v>0.05324896960524957</v>
+        <v>0.05248586709748201</v>
       </c>
       <c r="T16">
-        <v>0.05324896960524957</v>
+        <v>0.06194687817228672</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H17">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I17">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J17">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>380.0356483393707</v>
+        <v>400.8302100900029</v>
       </c>
       <c r="R17">
-        <v>380.0356483393707</v>
+        <v>3607.471890810026</v>
       </c>
       <c r="S17">
-        <v>0.04038600343022996</v>
+        <v>0.04044565117793298</v>
       </c>
       <c r="T17">
-        <v>0.04038600343022996</v>
+        <v>0.0477363138816929</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H18">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I18">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J18">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>13.48725458202624</v>
+        <v>17.4553431389669</v>
       </c>
       <c r="R18">
-        <v>13.48725458202624</v>
+        <v>157.098088250702</v>
       </c>
       <c r="S18">
-        <v>0.001433276883877178</v>
+        <v>0.001761326122677371</v>
       </c>
       <c r="T18">
-        <v>0.001433276883877178</v>
+        <v>0.002078819704750494</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.71989680487256</v>
+        <v>2.791195666666667</v>
       </c>
       <c r="H19">
-        <v>2.71989680487256</v>
+        <v>8.373587000000001</v>
       </c>
       <c r="I19">
-        <v>0.1422690270349102</v>
+        <v>0.1430448237107242</v>
       </c>
       <c r="J19">
-        <v>0.1422690270349102</v>
+        <v>0.1652860436390099</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>81.48983765758652</v>
+        <v>83.63350150332717</v>
       </c>
       <c r="R19">
-        <v>81.48983765758652</v>
+        <v>501.801009019963</v>
       </c>
       <c r="S19">
-        <v>0.008659842510956433</v>
+        <v>0.008439013186738516</v>
       </c>
       <c r="T19">
-        <v>0.008659842510956433</v>
+        <v>0.006640143346300191</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H20">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I20">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J20">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>4.637568555976041</v>
+        <v>5.202831180295999</v>
       </c>
       <c r="R20">
-        <v>4.637568555976041</v>
+        <v>31.216987081776</v>
       </c>
       <c r="S20">
-        <v>0.0004928297132860626</v>
+        <v>0.0005249901074289652</v>
       </c>
       <c r="T20">
-        <v>0.0004928297132860626</v>
+        <v>0.0004130826071223534</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H21">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I21">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J21">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>333.4036460688264</v>
+        <v>359.9762203927332</v>
       </c>
       <c r="R21">
-        <v>333.4036460688264</v>
+        <v>3239.785983534599</v>
       </c>
       <c r="S21">
-        <v>0.0354304677801245</v>
+        <v>0.03632329169771412</v>
       </c>
       <c r="T21">
-        <v>0.0354304677801245</v>
+        <v>0.04287086505469354</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H22">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I22">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J22">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>467.0448848101025</v>
+        <v>480.2133498971453</v>
       </c>
       <c r="R22">
-        <v>467.0448848101025</v>
+        <v>4321.920149074308</v>
       </c>
       <c r="S22">
-        <v>0.04963238686274077</v>
+        <v>0.04845578290260471</v>
       </c>
       <c r="T22">
-        <v>0.04963238686274077</v>
+        <v>0.05719033801300069</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H23">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I23">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J23">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>354.2242499684469</v>
+        <v>370.0527916372827</v>
       </c>
       <c r="R23">
-        <v>354.2242499684469</v>
+        <v>3330.475124735544</v>
       </c>
       <c r="S23">
-        <v>0.03764305226840557</v>
+        <v>0.03734006507299221</v>
       </c>
       <c r="T23">
-        <v>0.03764305226840557</v>
+        <v>0.04407092022935974</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H24">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I24">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J24">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>12.57122235592341</v>
+        <v>16.11504895329867</v>
       </c>
       <c r="R24">
-        <v>12.57122235592341</v>
+        <v>145.035440579688</v>
       </c>
       <c r="S24">
-        <v>0.00133593106701172</v>
+        <v>0.001626084143044207</v>
       </c>
       <c r="T24">
-        <v>0.00133593106701172</v>
+        <v>0.001919199241196861</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.53516587169527</v>
+        <v>2.576876</v>
       </c>
       <c r="H25">
-        <v>2.53516587169527</v>
+        <v>7.730627999999999</v>
       </c>
       <c r="I25">
-        <v>0.1326063478923405</v>
+        <v>0.132061244414513</v>
       </c>
       <c r="J25">
-        <v>0.1326063478923405</v>
+        <v>0.1525946905388278</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>75.95518144269488</v>
+        <v>77.211771784262</v>
       </c>
       <c r="R25">
-        <v>75.95518144269488</v>
+        <v>463.2706307055719</v>
       </c>
       <c r="S25">
-        <v>0.008071680200771909</v>
+        <v>0.007791030490728762</v>
       </c>
       <c r="T25">
-        <v>0.008071680200771909</v>
+        <v>0.006130285393454673</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H26">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I26">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J26">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>6.507324098554127</v>
+        <v>7.202993716073333</v>
       </c>
       <c r="R26">
-        <v>6.507324098554127</v>
+        <v>43.21796229644</v>
       </c>
       <c r="S26">
-        <v>0.0006915267410154669</v>
+        <v>0.0007268159034513134</v>
       </c>
       <c r="T26">
-        <v>0.0006915267410154669</v>
+        <v>0.0005718869823395312</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H27">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I27">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J27">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>467.823937139161</v>
+        <v>498.3645180040555</v>
       </c>
       <c r="R27">
-        <v>467.823937139161</v>
+        <v>4485.280662036499</v>
       </c>
       <c r="S27">
-        <v>0.04971517596468732</v>
+        <v>0.05028732103332412</v>
       </c>
       <c r="T27">
-        <v>0.04971517596468732</v>
+        <v>0.05935202602019026</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H28">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I28">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J28">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>655.3460929682303</v>
+        <v>664.8252887357523</v>
       </c>
       <c r="R28">
-        <v>655.3460929682303</v>
+        <v>5983.42759862177</v>
       </c>
       <c r="S28">
-        <v>0.06964296553298066</v>
+        <v>0.06708399478282104</v>
       </c>
       <c r="T28">
-        <v>0.06964296553298066</v>
+        <v>0.07917643895266993</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H29">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I29">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J29">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>497.0389052559904</v>
+        <v>512.3148994096512</v>
       </c>
       <c r="R29">
-        <v>497.0389052559904</v>
+        <v>4610.83409468686</v>
       </c>
       <c r="S29">
-        <v>0.05281982103610626</v>
+        <v>0.05169498005184758</v>
       </c>
       <c r="T29">
-        <v>0.05281982103610626</v>
+        <v>0.06101342720399153</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H30">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I30">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J30">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>17.63963533855852</v>
+        <v>22.31027537169112</v>
       </c>
       <c r="R30">
-        <v>17.63963533855852</v>
+        <v>200.79247834522</v>
       </c>
       <c r="S30">
-        <v>0.001874546181138418</v>
+        <v>0.002251211591971654</v>
       </c>
       <c r="T30">
-        <v>0.001874546181138418</v>
+        <v>0.002657011076313113</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.55728347119659</v>
+        <v>3.567523333333333</v>
       </c>
       <c r="H31">
-        <v>3.55728347119659</v>
+        <v>10.70257</v>
       </c>
       <c r="I31">
-        <v>0.1860700220051988</v>
+        <v>0.1828305168265029</v>
       </c>
       <c r="J31">
-        <v>0.1860700220051988</v>
+        <v>0.2112577861876348</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>106.5784746136383</v>
+        <v>106.8948592979883</v>
       </c>
       <c r="R31">
-        <v>106.5784746136383</v>
+        <v>641.3691557879299</v>
       </c>
       <c r="S31">
-        <v>0.01132598654927067</v>
+        <v>0.01078619346308721</v>
       </c>
       <c r="T31">
-        <v>0.01132598654927067</v>
+        <v>0.008486995952130432</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H32">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I32">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J32">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>6.427413984894468</v>
+        <v>7.094156368428</v>
       </c>
       <c r="R32">
-        <v>6.427413984894468</v>
+        <v>28.376625473712</v>
       </c>
       <c r="S32">
-        <v>0.000683034774173748</v>
+        <v>0.0007158337037887527</v>
       </c>
       <c r="T32">
-        <v>0.000683034774173748</v>
+        <v>0.0003754971740645209</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H33">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I33">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J33">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>462.0790467013533</v>
+        <v>490.8342223466999</v>
       </c>
       <c r="R33">
-        <v>462.0790467013533</v>
+        <v>2945.0053340802</v>
       </c>
       <c r="S33">
-        <v>0.04910467227656905</v>
+        <v>0.04952747882643128</v>
       </c>
       <c r="T33">
-        <v>0.04910467227656905</v>
+        <v>0.03897014398616573</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H34">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I34">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J34">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>647.2984254504651</v>
+        <v>654.7797682305661</v>
       </c>
       <c r="R34">
-        <v>647.2984254504651</v>
+        <v>3928.678609383396</v>
       </c>
       <c r="S34">
-        <v>0.0687877480569412</v>
+        <v>0.06607035457301173</v>
       </c>
       <c r="T34">
-        <v>0.0687877480569412</v>
+        <v>0.05198672114828537</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H35">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I35">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J35">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>490.9352542297407</v>
+        <v>504.573813271188</v>
       </c>
       <c r="R35">
-        <v>490.9352542297407</v>
+        <v>3027.442879627128</v>
       </c>
       <c r="S35">
-        <v>0.05217119222362465</v>
+        <v>0.05091386809518066</v>
       </c>
       <c r="T35">
-        <v>0.05217119222362465</v>
+        <v>0.04006100891012801</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H36">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I36">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J36">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>17.42302014566651</v>
+        <v>21.973166762076</v>
       </c>
       <c r="R36">
-        <v>17.42302014566651</v>
+        <v>131.839000572456</v>
       </c>
       <c r="S36">
-        <v>0.001851526703988304</v>
+        <v>0.002217195749626564</v>
       </c>
       <c r="T36">
-        <v>0.001851526703988304</v>
+        <v>0.001744575731610843</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.51359993519965</v>
+        <v>3.513618</v>
       </c>
       <c r="H37">
-        <v>3.51359993519965</v>
+        <v>7.027236</v>
       </c>
       <c r="I37">
-        <v>0.1837850771673668</v>
+        <v>0.1800679448592918</v>
       </c>
       <c r="J37">
-        <v>0.1837850771673668</v>
+        <v>0.1387104518240058</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>105.2696881000019</v>
+        <v>105.279676303041</v>
       </c>
       <c r="R37">
-        <v>105.2696881000019</v>
+        <v>421.118705212164</v>
       </c>
       <c r="S37">
-        <v>0.01118690313206988</v>
+        <v>0.01062321391125278</v>
       </c>
       <c r="T37">
-        <v>0.01118690313206988</v>
+        <v>0.005572504873751376</v>
       </c>
     </row>
   </sheetData>
